--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -8,18 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
-    <sheet name="1.04-1.08" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>功能</t>
   </si>
@@ -117,7 +115,82 @@
     <t>奖励获得</t>
   </si>
   <si>
-    <t>完成进度</t>
+    <t>小精灵随机事件</t>
+  </si>
+  <si>
+    <t>精灵</t>
+  </si>
+  <si>
+    <t>前端表现</t>
+  </si>
+  <si>
+    <t>M/P</t>
+  </si>
+  <si>
+    <t>实际效果</t>
+  </si>
+  <si>
+    <t>主动技能</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>物品购买、获得</t>
+  </si>
+  <si>
+    <t>摇钱树</t>
+  </si>
+  <si>
+    <t>金币购买、获得</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>Boss表现</t>
+  </si>
+  <si>
+    <t>Boss放大1.5倍</t>
+  </si>
+  <si>
+    <t>关卡掉落</t>
+  </si>
+  <si>
+    <t>物品获得</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>宝箱掉落</t>
+  </si>
+  <si>
+    <t>掉落表现</t>
+  </si>
+  <si>
+    <t>宝箱开启</t>
+  </si>
+  <si>
+    <t>2级弹框</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>通关榜</t>
+  </si>
+  <si>
+    <t>竞技榜</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>充值</t>
   </si>
 </sst>
 </file>
@@ -125,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,9 +219,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,85 +348,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,44 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,13 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,55 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,90 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,20 +582,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +620,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -557,17 +649,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +677,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,15 +1189,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
@@ -1434,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1447,8 +1521,14 @@
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
@@ -1457,9 +1537,184 @@
       <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D27"/>
+  <autoFilter ref="D1:D35"/>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>
@@ -1479,252 +1734,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
+    <sheet name="1.04-1.08" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>功能</t>
   </si>
@@ -115,82 +117,7 @@
     <t>奖励获得</t>
   </si>
   <si>
-    <t>小精灵随机事件</t>
-  </si>
-  <si>
-    <t>精灵</t>
-  </si>
-  <si>
-    <t>前端表现</t>
-  </si>
-  <si>
-    <t>M/P</t>
-  </si>
-  <si>
-    <t>实际效果</t>
-  </si>
-  <si>
-    <t>主动技能</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>商城</t>
-  </si>
-  <si>
-    <t>物品购买、获得</t>
-  </si>
-  <si>
-    <t>摇钱树</t>
-  </si>
-  <si>
-    <t>金币购买、获得</t>
-  </si>
-  <si>
-    <t>关卡</t>
-  </si>
-  <si>
-    <t>Boss表现</t>
-  </si>
-  <si>
-    <t>Boss放大1.5倍</t>
-  </si>
-  <si>
-    <t>关卡掉落</t>
-  </si>
-  <si>
-    <t>物品获得</t>
-  </si>
-  <si>
-    <t>宝箱</t>
-  </si>
-  <si>
-    <t>宝箱掉落</t>
-  </si>
-  <si>
-    <t>掉落表现</t>
-  </si>
-  <si>
-    <t>宝箱开启</t>
-  </si>
-  <si>
-    <t>2级弹框</t>
-  </si>
-  <si>
-    <t>排行榜</t>
-  </si>
-  <si>
-    <t>通关榜</t>
-  </si>
-  <si>
-    <t>竞技榜</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>充值</t>
+    <t>完成进度</t>
   </si>
 </sst>
 </file>
@@ -198,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,14 +146,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +237,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,92 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,19 +316,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,121 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,24 +509,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +543,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -634,17 +572,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,26 +604,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,16 +1116,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
@@ -1508,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1521,14 +1447,8 @@
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
@@ -1537,184 +1457,9 @@
       <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D35"/>
+  <autoFilter ref="D1:D27"/>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>
@@ -1734,4 +1479,252 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12705"/>
+    <workbookView windowWidth="28695" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -233,6 +233,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -244,6 +252,36 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +293,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -272,70 +341,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,21 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,25 +389,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,67 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,74 +555,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -580,11 +580,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,47 +662,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,8 +674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,15 +690,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,156 +698,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +860,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,7 +1211,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1209,422 +1228,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="1" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="1" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="1" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="1" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>1.05</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="1" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="1" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="1" t="s">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="1" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
@@ -1636,7 +1759,7 @@
       <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1">
@@ -1653,7 +1776,7 @@
       <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1661,7 +1784,7 @@
       <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1675,7 +1798,7 @@
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1686,7 +1809,7 @@
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1714,7 +1837,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D35"/>
+  <autoFilter ref="D1:D40"/>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -200,8 +200,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,6 +218,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -225,8 +247,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,15 +325,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,90 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -361,6 +354,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,169 +389,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,17 +593,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +621,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,16 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,15 +667,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1734,8 +1734,12 @@
       <c r="D34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
@@ -1746,8 +1750,12 @@
       <c r="D35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能目录!$D$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>功能</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>充值</t>
+  </si>
+  <si>
+    <t>常量json</t>
+  </si>
+  <si>
+    <t>文本json</t>
   </si>
 </sst>
 </file>
@@ -198,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -216,6 +222,112 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -233,35 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -270,63 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,28 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,13 +395,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,151 +461,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +601,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -620,8 +652,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,52 +688,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1821,17 +1827,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1844,8 +1862,24 @@
         <v>57</v>
       </c>
     </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D40"/>
+  <autoFilter ref="D1:D42"/>
   <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>功能</t>
   </si>
@@ -49,9 +49,33 @@
     <t>复活</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>详细信息及UI</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>新场景</t>
+  </si>
+  <si>
+    <t>NO浮层</t>
+  </si>
+  <si>
+    <t>技能面板</t>
+  </si>
+  <si>
+    <t>英雄按钮数据变换</t>
+  </si>
+  <si>
+    <t>gitbook技能解锁逻辑可定制诠释（unlocklevel字段解释）</t>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
@@ -106,12 +130,15 @@
     <t>主动技能释放</t>
   </si>
   <si>
+    <t>主动技能释放文档</t>
+  </si>
+  <si>
+    <t>精灵文档</t>
+  </si>
+  <si>
     <t>离线挂机</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>奖励获得</t>
   </si>
   <si>
@@ -137,6 +164,9 @@
   </si>
   <si>
     <t>商城</t>
+  </si>
+  <si>
+    <t>文档</t>
   </si>
   <si>
     <t>物品购买、获得</t>
@@ -204,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,6 +255,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,7 +284,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +305,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,111 +392,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,13 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +449,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,139 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,10 +631,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,15 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,21 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,6 +700,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,22 +1244,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9" style="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9" style="1"/>
     <col min="12" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.25" style="1" customWidth="1"/>
     <col min="15" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1297,7 +1328,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
@@ -1312,25 +1343,46 @@
       <c r="F5" s="2">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1349,7 +1401,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -1358,17 +1410,17 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -1409,10 +1461,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1427,7 +1479,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -1436,14 +1488,14 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -1454,10 +1506,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -1481,7 +1533,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -1493,10 +1545,10 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1504,10 +1556,10 @@
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -1531,90 +1583,96 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1627,10 +1685,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1641,16 +1699,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1659,24 +1717,24 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1685,42 +1743,45 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>30</v>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>1.07</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1732,13 +1793,13 @@
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>30</v>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1751,10 +1812,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1765,16 +1826,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1785,57 +1846,57 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1846,36 +1907,36 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125"/>
+    <workbookView windowWidth="20385" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>功能</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>文本json</t>
+  </si>
+  <si>
+    <t>背包逻辑文档</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,8 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +296,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,39 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -368,23 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +428,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,19 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,121 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,16 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,26 +671,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,11 +708,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1937,6 +1940,11 @@
       </c>
       <c r="D46" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8445"/>
+    <workbookView windowWidth="28695" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
@@ -1249,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1.07</v>
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>1.07</v>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>功能</t>
   </si>
@@ -229,7 +229,82 @@
     <t>文本json</t>
   </si>
   <si>
-    <t>背包逻辑文档</t>
+    <t>核心功能</t>
+  </si>
+  <si>
+    <t>联网</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优化 </t>
+  </si>
+  <si>
+    <t>主动技能界面</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>登录注册界面</t>
+  </si>
+  <si>
+    <t>所有界面UI合图</t>
+  </si>
+  <si>
+    <t>精灵钻石、宝物</t>
+  </si>
+  <si>
+    <t>掉落（其他道具、资源）</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>存档</t>
+  </si>
+  <si>
+    <t>加载内容优化</t>
+  </si>
+  <si>
+    <t>开宝箱（钥匙）</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马 </t>
+  </si>
+  <si>
+    <t>离线收益</t>
+  </si>
+  <si>
+    <t>代码重构</t>
+  </si>
+  <si>
+    <t>主角装备购买升级</t>
+  </si>
+  <si>
+    <t>英雄装备升级（1级默认）</t>
+  </si>
+  <si>
+    <t>精灵动作优化（帧裁切、速率）</t>
+  </si>
+  <si>
+    <t>背包面板</t>
+  </si>
+  <si>
+    <t>裴</t>
+  </si>
+  <si>
+    <t>数据面板</t>
+  </si>
+  <si>
+    <t>商城优化</t>
+  </si>
+  <si>
+    <t>摇钱树优化表现（摇一摇）</t>
+  </si>
+  <si>
+    <t>黄/裴</t>
   </si>
 </sst>
 </file>
@@ -237,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -258,16 +333,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,9 +369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,8 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,24 +430,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,16 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +470,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,169 +503,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,23 +710,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +779,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,39 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,19 +824,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,112 +845,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,21 +1322,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1"/>
+    <col min="8" max="8" width="38.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="13" width="13.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="35.25" style="1" customWidth="1"/>
     <col min="15" max="16383" width="9" style="1"/>
@@ -1942,9 +2019,125 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="1" t="s">
+    <row r="58" spans="4:8">
+      <c r="D58" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="D62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="功能目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>功能</t>
   </si>
@@ -305,6 +305,54 @@
   </si>
   <si>
     <t>黄/裴</t>
+  </si>
+  <si>
+    <t>主动技能UI</t>
+  </si>
+  <si>
+    <t>主动技能关联逻辑</t>
+  </si>
+  <si>
+    <t>主动技能释放逻辑</t>
+  </si>
+  <si>
+    <t>主动技能数据</t>
+  </si>
+  <si>
+    <t>新增其他资源：木材、石材、铜、铁、钢、水晶、秘银、精金</t>
+  </si>
+  <si>
+    <t>增加以上资源和钻石、宝物、宝箱、钥匙的精灵</t>
+  </si>
+  <si>
+    <t>开宝箱逻辑</t>
+  </si>
+  <si>
+    <t>宝箱掉落数据</t>
+  </si>
+  <si>
+    <t>装备界面UI</t>
+  </si>
+  <si>
+    <t>装备获得逻辑（主角为神器购买、英雄为宝箱掉落）</t>
+  </si>
+  <si>
+    <t>装备升级</t>
+  </si>
+  <si>
+    <t>背包系统界面</t>
+  </si>
+  <si>
+    <t>背包系统逻辑</t>
+  </si>
+  <si>
+    <t>数据面板界面</t>
+  </si>
+  <si>
+    <t>数据面板逻辑</t>
+  </si>
+  <si>
+    <t>摇钱树表现优化（摇一摇）</t>
   </si>
 </sst>
 </file>
@@ -312,9 +360,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -340,17 +388,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,40 +417,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,9 +440,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,15 +478,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +516,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -503,31 +551,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,31 +671,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,97 +701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,8 +758,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,11 +788,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,47 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +872,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1333,7 +1381,7 @@
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
@@ -2140,9 +2188,112 @@
         <v>95</v>
       </c>
     </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D42"/>
-  <mergeCells count="13">
+  <mergeCells count="19">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -2156,6 +2307,12 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E99:E100"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -361,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -380,20 +380,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -404,13 +390,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +420,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +475,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,9 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,15 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,14 +518,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,85 +551,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,37 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,36 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,11 +779,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,21 +805,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +826,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -844,11 +846,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,133 +872,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/doc/G功能验收表.xlsx
+++ b/doc/G功能验收表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>功能</t>
   </si>
@@ -247,6 +247,9 @@
     <t>登录注册界面</t>
   </si>
   <si>
+    <t>裴</t>
+  </si>
+  <si>
     <t>所有界面UI合图</t>
   </si>
   <si>
@@ -256,70 +259,73 @@
     <t>掉落（其他道具、资源）</t>
   </si>
   <si>
+    <t>存档</t>
+  </si>
+  <si>
+    <t>加载内容优化</t>
+  </si>
+  <si>
+    <t>开宝箱（钥匙）</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马 </t>
+  </si>
+  <si>
+    <t>离线收益</t>
+  </si>
+  <si>
+    <t>代码重构</t>
+  </si>
+  <si>
+    <t>主角装备购买升级</t>
+  </si>
+  <si>
+    <t>英雄装备升级（1级默认）</t>
+  </si>
+  <si>
+    <t>用户自定义游戏名</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>精灵动作优化（帧裁切、速率）</t>
+  </si>
+  <si>
+    <t>背包面板</t>
+  </si>
+  <si>
+    <t>数据面板</t>
+  </si>
+  <si>
+    <t>商城优化</t>
+  </si>
+  <si>
+    <t>摇钱树优化表现（摇一摇）</t>
+  </si>
+  <si>
+    <t>黄/裴</t>
+  </si>
+  <si>
+    <t>主动技能UI</t>
+  </si>
+  <si>
+    <t>主动技能关联逻辑</t>
+  </si>
+  <si>
+    <t>主动技能释放逻辑</t>
+  </si>
+  <si>
+    <t>主动技能数据</t>
+  </si>
+  <si>
+    <t>新增其他资源：木材、石材、铜、铁、钢、水晶、秘银、精金</t>
+  </si>
+  <si>
     <t>黄</t>
-  </si>
-  <si>
-    <t>存档</t>
-  </si>
-  <si>
-    <t>加载内容优化</t>
-  </si>
-  <si>
-    <t>开宝箱（钥匙）</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">马 </t>
-  </si>
-  <si>
-    <t>离线收益</t>
-  </si>
-  <si>
-    <t>代码重构</t>
-  </si>
-  <si>
-    <t>主角装备购买升级</t>
-  </si>
-  <si>
-    <t>英雄装备升级（1级默认）</t>
-  </si>
-  <si>
-    <t>精灵动作优化（帧裁切、速率）</t>
-  </si>
-  <si>
-    <t>背包面板</t>
-  </si>
-  <si>
-    <t>裴</t>
-  </si>
-  <si>
-    <t>数据面板</t>
-  </si>
-  <si>
-    <t>商城优化</t>
-  </si>
-  <si>
-    <t>摇钱树优化表现（摇一摇）</t>
-  </si>
-  <si>
-    <t>黄/裴</t>
-  </si>
-  <si>
-    <t>主动技能UI</t>
-  </si>
-  <si>
-    <t>主动技能关联逻辑</t>
-  </si>
-  <si>
-    <t>主动技能释放逻辑</t>
-  </si>
-  <si>
-    <t>主动技能数据</t>
-  </si>
-  <si>
-    <t>新增其他资源：木材、石材、铜、铁、钢、水晶、秘银、精金</t>
   </si>
   <si>
     <t>增加以上资源和钻石、宝物、宝箱、钥匙的精灵</t>
@@ -361,9 +367,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -381,6 +387,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -395,8 +416,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -419,65 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -494,25 +492,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,8 +507,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +557,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,19 +671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,127 +713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,9 +769,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,21 +827,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -805,6 +837,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,35 +864,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,10 +872,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,137 +884,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,6 +1037,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1383,13 +1398,13 @@
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="69.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.25" style="1" customWidth="1"/>
-    <col min="15" max="16383" width="9" style="1"/>
+    <col min="6" max="7" width="32.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.49166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+    <col min="13" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="35.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1456,7 +1471,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
@@ -1471,11 +1486,11 @@
       <c r="F5" s="2">
         <v>1.07</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
@@ -1486,22 +1501,22 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1771,7 +1786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -1782,10 +1797,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1879,7 +1894,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1898,7 +1913,7 @@
       <c r="F32" s="2">
         <v>1.07</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2067,63 +2082,68 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="4:8">
+    <row r="58" spans="4:9">
       <c r="D58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="4:8">
+    <row r="62" spans="4:9">
       <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="3:8">
+      <c r="I62" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="G63" s="1"/>
+      <c r="I63" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="4:8">
+    <row r="64" spans="4:9">
       <c r="D64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>79</v>
+      <c r="E64" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="1"/>
+      <c r="I64" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="4:8">
+    <row r="65" spans="4:9">
       <c r="D65" s="1" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2153,8 @@
       <c r="F65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="1"/>
+      <c r="I65" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2145,98 +2166,111 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="4:8">
+    <row r="67" spans="4:9">
       <c r="D67" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="D70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="4:5">
       <c r="D79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:5">
       <c r="D80" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4">
+        <v>98</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="4:5">
       <c r="D81" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
+        <v>99</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="4:5">
       <c r="D82" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E82" s="8"/>
     </row>
     <row r="84" spans="4:5">
       <c r="D84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
+        <v>101</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
       <c r="D85" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4">
+        <v>103</v>
+      </c>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="4:5">
       <c r="D86" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
+        <v>104</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="4:5">
       <c r="D87" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E87" s="8"/>
     </row>
     <row r="89" spans="4:5">
       <c r="D89" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>74</v>
@@ -2244,56 +2278,59 @@
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="4:5">
       <c r="D93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4">
+        <v>109</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
       <c r="D94" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E94" s="8"/>
     </row>
     <row r="96" spans="4:5">
       <c r="D96" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
+        <v>111</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
       <c r="D97" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E97" s="8"/>
     </row>
     <row r="99" spans="4:5">
       <c r="D99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
+        <v>94</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
       <c r="D100" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E100" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D42"/>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -2313,6 +2350,7 @@
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="E99:E100"/>
+    <mergeCell ref="G62:G67"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
